--- a/Styles.xlsx
+++ b/Styles.xlsx
@@ -1,39 +1,233 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgabr\OneDrive\Documentos\Gabriel (cloud)\DeskPyLab\Lab - Projects for sale\XL-PDF drawer\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1335679B-24FB-443D-8DEB-FC5BBFECB9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Info" sheetId="1" r:id="rId1"/>
+    <sheet name="Formulario" sheetId="2" r:id="rId2"/>
+    <sheet name="Otros" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+  <si>
+    <t>FORMULARIO #1</t>
+  </si>
+  <si>
+    <t>NOMBRE DE LA EMPRESA</t>
+  </si>
+  <si>
+    <t>INFORMACIÓN ADICIONAL EN EL FORMULARIO</t>
+  </si>
+  <si>
+    <t>Lorem ipsum, dolr sit amet consectetur adipisicing elit. Eligendi sequi illo ab fuga exercitationem iusto nisi officia impedit error corrupti odit assumenda libero, cupiditate ipsam recusandae hic praesentium nam quam.</t>
+  </si>
+  <si>
+    <t>2024-01-02 00:00:00</t>
+  </si>
+  <si>
+    <t>FECHA</t>
+  </si>
+  <si>
+    <t>107990490</t>
+  </si>
+  <si>
+    <t>22/06/2024</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>IDENTIFICACIÓN</t>
+  </si>
+  <si>
+    <t>FECHA EXP ID</t>
+  </si>
+  <si>
+    <t>EDAD</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>PRADO</t>
+  </si>
+  <si>
+    <t>XINIA</t>
+  </si>
+  <si>
+    <t>APELLIDO 1</t>
+  </si>
+  <si>
+    <t>APELLIDO 2</t>
+  </si>
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>TELEFONO</t>
+  </si>
+  <si>
+    <t>77007700</t>
+  </si>
+  <si>
+    <t>E-MAIL</t>
+  </si>
+  <si>
+    <t>lopezpxinia@gmail.com</t>
+  </si>
+  <si>
+    <t>Marque una o más opciones como medio de contacto preferido:</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Mensaje de WhatsApp</t>
+  </si>
+  <si>
+    <t>Llamada telefónica</t>
+  </si>
+  <si>
+    <t>Correo electrónico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XINIA MARIA LOPEZ PRADO	</t>
+  </si>
+  <si>
+    <t>NOMBRE COMPLETO</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -41,85 +235,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="43">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -385,49 +747,670 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="14" width="6.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr"/>
-      <c r="C1" t="inlineStr"/>
-      <c r="D1" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr"/>
-    </row>
+    <row r="1" spans="1:14" ht="17.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="41"/>
+    </row>
+    <row r="2" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="31"/>
+    </row>
+    <row r="3" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="31"/>
+    </row>
+    <row r="4" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="31"/>
+    </row>
+    <row r="5" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="31"/>
+    </row>
+    <row r="6" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="32"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="31"/>
+    </row>
+    <row r="7" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="31"/>
+    </row>
+    <row r="8" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="32"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="31"/>
+    </row>
+    <row r="9" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="31"/>
+    </row>
+    <row r="10" spans="1:14" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="32"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="31"/>
+    </row>
+    <row r="11" spans="1:14" ht="17.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="19"/>
+    </row>
+    <row r="12" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="10"/>
+    </row>
+    <row r="14" spans="1:14" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="20"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="21"/>
+    </row>
+    <row r="15" spans="1:14" ht="17.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="N15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="J16" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="J18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="G20" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="L20" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="23"/>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="12"/>
+    </row>
+    <row r="22" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="G22" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="L22" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="M22" s="23"/>
+      <c r="N22" s="12"/>
+    </row>
+    <row r="23" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="N23" s="12"/>
+    </row>
+    <row r="24" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="N24" s="12"/>
+    </row>
+    <row r="25" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="F25" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="J25" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="N28" s="12"/>
+    </row>
+    <row r="29" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="N29" s="12"/>
+    </row>
+    <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="N30" s="12"/>
+    </row>
+    <row r="31" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="N31" s="12"/>
+    </row>
+    <row r="32" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="N32" s="12"/>
+    </row>
+    <row r="33" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="12"/>
+    </row>
+    <row r="34" spans="1:14" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="N34" s="12"/>
+    </row>
+    <row r="35" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="N35" s="12"/>
+    </row>
+    <row r="36" spans="1:14" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="3"/>
+      <c r="N36" s="12"/>
+    </row>
+    <row r="37" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="N37" s="12"/>
+    </row>
+    <row r="38" spans="1:14" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="3"/>
+      <c r="N38" s="12"/>
+    </row>
+    <row r="39" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="N39" s="12"/>
+    </row>
+    <row r="40" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="N40" s="12"/>
+    </row>
+    <row r="41" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="D41" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="N41" s="12"/>
+    </row>
+    <row r="42" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="N42" s="12"/>
+    </row>
+    <row r="43" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+      <c r="D43" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="N43" s="12"/>
+    </row>
+    <row r="44" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
+      <c r="N44" s="12"/>
+    </row>
+    <row r="45" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="14"/>
+    </row>
+    <row r="46" spans="1:14" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="15"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="17"/>
+    </row>
+    <row r="47" spans="1:14" ht="17.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="A1:N6"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="A7:N8"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D43:K43"/>
+    <mergeCell ref="B11:M14"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="B20:E21"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="J16:M17"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="G20:J21"/>
+    <mergeCell ref="A9:N10"/>
+    <mergeCell ref="B33:M33"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="D41:K42"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="C35:G35"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>